--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_25_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="180">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,475 +74,487 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.973+/-0.003</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>0.964+/-0.035</t>
-  </si>
-  <si>
-    <t>0.638+/-0.02</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.967+/-0.031</t>
-  </si>
-  <si>
-    <t>0.557+/-0.041</t>
-  </si>
-  <si>
-    <t>0.505</t>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.975+/-0.002</t>
+  </si>
+  <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.993+/-0.021</t>
+  </si>
+  <si>
+    <t>0.662+/-0.018</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.943+/-0.018</t>
+  </si>
+  <si>
+    <t>0.525+/-0.022</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.647+/-0.002</t>
+  </si>
+  <si>
+    <t>0.645+/-0.0</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.578+/-0.004</t>
+  </si>
+  <si>
+    <t>0.574+/-0.041</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.276+/-0.011</t>
+  </si>
+  <si>
+    <t>0.272+/-0.019</t>
+  </si>
+  <si>
+    <t>0.274</t>
+  </si>
+  <si>
+    <t>0.12+/-0.033</t>
+  </si>
+  <si>
+    <t>0.597+/-0.002</t>
+  </si>
+  <si>
+    <t>0.597+/-0.0</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.48+/-0.002</t>
+  </si>
+  <si>
+    <t>0.48+/-0.014</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.697+/-0.03</t>
+  </si>
+  <si>
+    <t>0.694+/-0.043</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.615+/-0.003</t>
+  </si>
+  <si>
+    <t>0.612+/-0.0</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>0.494+/-0.004</t>
+  </si>
+  <si>
+    <t>0.492+/-0.019</t>
+  </si>
+  <si>
+    <t>0.503</t>
+  </si>
+  <si>
+    <t>0.494+/-0.01</t>
+  </si>
+  <si>
+    <t>0.491+/-0.023</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>0.01+/-0.002</t>
+  </si>
+  <si>
+    <t>0.784+/-0.004</t>
+  </si>
+  <si>
+    <t>0.73+/-0.0</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.784+/-0.021</t>
+  </si>
+  <si>
+    <t>0.691+/-0.024</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.6+/-0.027</t>
+  </si>
+  <si>
+    <t>0.533+/-0.05</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>6.087+/-1.108</t>
+  </si>
+  <si>
+    <t>0.788+/-0.008</t>
+  </si>
+  <si>
+    <t>0.705+/-0.0</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.74+/-0.026</t>
+  </si>
+  <si>
+    <t>0.623+/-0.026</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.687+/-0.027</t>
+  </si>
+  <si>
+    <t>0.577+/-0.029</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.117+/-0.013</t>
+  </si>
+  <si>
+    <t>0.767+/-0.008</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.734+/-0.051</t>
+  </si>
+  <si>
+    <t>0.622+/-0.045</t>
+  </si>
+  <si>
+    <t>0.624+/-0.071</t>
+  </si>
+  <si>
+    <t>0.541+/-0.081</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.161+/-0.019</t>
+  </si>
+  <si>
+    <t>0.724+/-0.003</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.768+/-0.005</t>
+  </si>
+  <si>
+    <t>0.714+/-0.026</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.393+/-0.011</t>
+  </si>
+  <si>
+    <t>0.358+/-0.024</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>46.787+/-3.759</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.991+/-0.0</t>
+  </si>
+  <si>
+    <t>0.819+/-0.0</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601+/-0.03</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.957+/-0.002</t>
+  </si>
+  <si>
+    <t>0.267+/-0.021</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
   <si>
     <t>0.003+/-0.0</t>
   </si>
   <si>
-    <t>0.642+/-0.002</t>
-  </si>
-  <si>
-    <t>0.639+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652</t>
-  </si>
-  <si>
-    <t>0.561+/-0.003</t>
-  </si>
-  <si>
-    <t>0.554+/-0.052</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.278+/-0.016</t>
-  </si>
-  <si>
-    <t>0.273+/-0.025</t>
+    <t>0.803+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.603+/-0.023</t>
+  </si>
+  <si>
+    <t>0.61+/-0.196</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.027+/-0.003</t>
+  </si>
+  <si>
+    <t>0.026+/-0.01</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.053+/-0.004</t>
+  </si>
+  <si>
+    <t>0.794+/-0.005</t>
+  </si>
+  <si>
+    <t>0.794+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.466+/-0.023</t>
+  </si>
+  <si>
+    <t>0.466+/-0.062</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.258+/-0.018</t>
+  </si>
+  <si>
+    <t>0.259+/-0.035</t>
   </si>
   <si>
     <t>0.282</t>
   </si>
   <si>
-    <t>0.057+/-0.003</t>
-  </si>
-  <si>
-    <t>0.596+/-0.003</t>
-  </si>
-  <si>
-    <t>0.596+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.479+/-0.003</t>
-  </si>
-  <si>
-    <t>0.479+/-0.016</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.71+/-0.018</t>
-  </si>
-  <si>
-    <t>0.71+/-0.042</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.618+/-0.003</t>
-  </si>
-  <si>
-    <t>0.616+/-0.0</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.499+/-0.004</t>
-  </si>
-  <si>
-    <t>0.496+/-0.016</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.477+/-0.013</t>
-  </si>
-  <si>
-    <t>0.472+/-0.021</t>
-  </si>
-  <si>
-    <t>0.477</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.772+/-0.005</t>
-  </si>
-  <si>
-    <t>0.731+/-0.0</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.75+/-0.038</t>
-  </si>
-  <si>
-    <t>0.685+/-0.044</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.611+/-0.051</t>
-  </si>
-  <si>
-    <t>0.557+/-0.048</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>4.435+/-1.036</t>
-  </si>
-  <si>
-    <t>0.789+/-0.007</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.775+/-0.028</t>
-  </si>
-  <si>
-    <t>0.619+/-0.021</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.632+/-0.034</t>
-  </si>
-  <si>
-    <t>0.505+/-0.061</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.122+/-0.004</t>
-  </si>
-  <si>
-    <t>0.769+/-0.006</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.728+/-0.026</t>
-  </si>
-  <si>
-    <t>0.608+/-0.015</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.63+/-0.035</t>
-  </si>
-  <si>
-    <t>0.535+/-0.045</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.176+/-0.006</t>
-  </si>
-  <si>
-    <t>0.715+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703</t>
-  </si>
-  <si>
-    <t>0.729+/-0.007</t>
-  </si>
-  <si>
-    <t>0.683+/-0.016</t>
-  </si>
-  <si>
-    <t>0.403+/-0.017</t>
-  </si>
-  <si>
-    <t>0.369+/-0.02</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>40.458+/-1.995</t>
-  </si>
-  <si>
-    <t>0.991+/-0.0</t>
-  </si>
-  <si>
-    <t>0.818+/-0.0</t>
-  </si>
-  <si>
-    <t>0.827</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.598+/-0.032</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.957+/-0.002</t>
-  </si>
-  <si>
-    <t>0.262+/-0.024</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.803+/-0.0</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.596+/-0.024</t>
-  </si>
-  <si>
-    <t>0.615+/-0.182</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.026+/-0.002</t>
-  </si>
-  <si>
-    <t>0.025+/-0.01</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>0.076+/-0.007</t>
-  </si>
-  <si>
-    <t>0.786+/-0.005</t>
-  </si>
-  <si>
-    <t>0.784+/-0.0</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.429+/-0.026</t>
-  </si>
-  <si>
-    <t>0.423+/-0.059</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
-    <t>0.237+/-0.017</t>
-  </si>
-  <si>
-    <t>0.234+/-0.028</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.783+/-0.002</t>
-  </si>
-  <si>
-    <t>0.782+/-0.0</t>
-  </si>
-  <si>
-    <t>0.784</t>
-  </si>
-  <si>
-    <t>0.293+/-0.008</t>
-  </si>
-  <si>
-    <t>0.29+/-0.065</t>
-  </si>
-  <si>
-    <t>0.298</t>
-  </si>
-  <si>
-    <t>0.067+/-0.009</t>
-  </si>
-  <si>
-    <t>0.065+/-0.01</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.856+/-0.004</t>
-  </si>
-  <si>
-    <t>0.829+/-0.0</t>
-  </si>
-  <si>
-    <t>0.836</t>
-  </si>
-  <si>
-    <t>0.746+/-0.029</t>
-  </si>
-  <si>
-    <t>0.629+/-0.055</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.419+/-0.03</t>
-  </si>
-  <si>
-    <t>0.349+/-0.027</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>4.317+/-0.436</t>
-  </si>
-  <si>
-    <t>0.887+/-0.003</t>
-  </si>
-  <si>
-    <t>0.815+/-0.0</t>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.792+/-0.001</t>
+  </si>
+  <si>
+    <t>0.793+/-0.0</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>0.309+/-0.019</t>
+  </si>
+  <si>
+    <t>0.312+/-0.086</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.04+/-0.008</t>
+  </si>
+  <si>
+    <t>0.039+/-0.015</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.009+/-0.003</t>
+  </si>
+  <si>
+    <t>0.852+/-0.003</t>
+  </si>
+  <si>
+    <t>0.826+/-0.0</t>
+  </si>
+  <si>
+    <t>0.842</t>
+  </si>
+  <si>
+    <t>0.708+/-0.036</t>
+  </si>
+  <si>
+    <t>0.605+/-0.049</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.44+/-0.038</t>
+  </si>
+  <si>
+    <t>0.37+/-0.052</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>5.691+/-1.723</t>
+  </si>
+  <si>
+    <t>0.886+/-0.003</t>
+  </si>
+  <si>
+    <t>0.816+/-0.0</t>
   </si>
   <si>
     <t>0.817</t>
   </si>
   <si>
-    <t>0.859+/-0.031</t>
-  </si>
-  <si>
-    <t>0.555+/-0.023</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.516+/-0.018</t>
-  </si>
-  <si>
-    <t>0.341+/-0.015</t>
-  </si>
-  <si>
-    <t>0.331</t>
-  </si>
-  <si>
-    <t>0.109+/-0.009</t>
-  </si>
-  <si>
-    <t>0.876+/-0.003</t>
-  </si>
-  <si>
-    <t>0.814+/-0.0</t>
-  </si>
-  <si>
-    <t>0.816</t>
-  </si>
-  <si>
-    <t>0.836+/-0.035</t>
-  </si>
-  <si>
-    <t>0.554+/-0.042</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.471+/-0.038</t>
-  </si>
-  <si>
-    <t>0.318+/-0.036</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.133+/-0.005</t>
+    <t>0.864+/-0.027</t>
+  </si>
+  <si>
+    <t>0.56+/-0.036</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.51+/-0.016</t>
+  </si>
+  <si>
+    <t>0.339+/-0.021</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.118+/-0.002</t>
+  </si>
+  <si>
+    <t>0.877+/-0.003</t>
+  </si>
+  <si>
+    <t>0.839+/-0.035</t>
+  </si>
+  <si>
+    <t>0.562+/-0.033</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.472+/-0.038</t>
+  </si>
+  <si>
+    <t>0.319+/-0.037</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>0.164+/-0.003</t>
   </si>
   <si>
     <t>0.831+/-0.001</t>
   </si>
   <si>
-    <t>0.822+/-0.0</t>
-  </si>
-  <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>0.789+/-0.019</t>
-  </si>
-  <si>
-    <t>0.714+/-0.056</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.204+/-0.009</t>
-  </si>
-  <si>
-    <t>0.173+/-0.028</t>
-  </si>
-  <si>
-    <t>0.195</t>
-  </si>
-  <si>
-    <t>29.749+/-2.804</t>
+    <t>0.821+/-0.0</t>
+  </si>
+  <si>
+    <t>0.771+/-0.014</t>
+  </si>
+  <si>
+    <t>0.694+/-0.064</t>
+  </si>
+  <si>
+    <t>0.213+/-0.01</t>
+  </si>
+  <si>
+    <t>0.18+/-0.028</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>24.359+/-2.078</t>
   </si>
 </sst>
 </file>
@@ -943,28 +955,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2">
-        <v>0.6189445196211096</v>
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -972,31 +984,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3">
-        <v>0.6189445196211096</v>
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1004,31 +1016,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1036,31 +1048,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1068,31 +1080,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1100,31 +1112,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1132,31 +1144,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0.6189445196211096</v>
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1164,31 +1176,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0.6189445196211096</v>
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1196,31 +1208,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1228,31 +1240,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1302,31 +1314,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2">
-        <v>0.8014433919711321</v>
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1334,31 +1346,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3">
-        <v>0.8014433919711321</v>
+        <v>155</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1366,31 +1378,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>107</v>
+      </c>
+      <c r="J4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1398,31 +1410,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1430,31 +1442,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1462,31 +1474,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1494,31 +1506,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8">
-        <v>0.8014433919711321</v>
+        <v>168</v>
+      </c>
+      <c r="J8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1526,31 +1538,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9">
-        <v>0.8014433919711321</v>
+        <v>169</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1558,31 +1570,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>170</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1590,31 +1602,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_25_1_replicas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="181">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -92,469 +92,472 @@
     <t>0.975+/-0.002</t>
   </si>
   <si>
-    <t>0.717+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
+    <t>0.71+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708</t>
   </si>
   <si>
     <t>0.993+/-0.021</t>
   </si>
   <si>
-    <t>0.662+/-0.018</t>
-  </si>
-  <si>
-    <t>0.663</t>
+    <t>0.645+/-0.016</t>
+  </si>
+  <si>
+    <t>0.653</t>
   </si>
   <si>
     <t>0.943+/-0.018</t>
   </si>
   <si>
-    <t>0.525+/-0.022</t>
-  </si>
-  <si>
-    <t>0.495</t>
+    <t>0.533+/-0.031</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.643+/-0.002</t>
+  </si>
+  <si>
+    <t>0.639+/-0.0</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.564+/-0.003</t>
+  </si>
+  <si>
+    <t>0.555+/-0.052</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.283+/-0.015</t>
+  </si>
+  <si>
+    <t>0.277+/-0.025</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.061+/-0.004</t>
+  </si>
+  <si>
+    <t>0.596+/-0.003</t>
+  </si>
+  <si>
+    <t>0.595+/-0.0</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.479+/-0.003</t>
+  </si>
+  <si>
+    <t>0.479+/-0.015</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.712+/-0.016</t>
+  </si>
+  <si>
+    <t>0.711+/-0.039</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.617+/-0.002</t>
+  </si>
+  <si>
+    <t>0.615+/-0.0</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.498+/-0.002</t>
+  </si>
+  <si>
+    <t>0.495+/-0.015</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.482+/-0.011</t>
+  </si>
+  <si>
+    <t>0.478+/-0.023</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.008+/-0.0</t>
+  </si>
+  <si>
+    <t>0.775+/-0.007</t>
+  </si>
+  <si>
+    <t>0.736+/-0.0</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>0.768+/-0.029</t>
+  </si>
+  <si>
+    <t>0.7+/-0.029</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.59+/-0.043</t>
+  </si>
+  <si>
+    <t>0.541+/-0.053</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>4.075+/-0.908</t>
+  </si>
+  <si>
+    <t>0.789+/-0.007</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.775+/-0.027</t>
+  </si>
+  <si>
+    <t>0.619+/-0.021</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.631+/-0.034</t>
+  </si>
+  <si>
+    <t>0.503+/-0.059</t>
+  </si>
+  <si>
+    <t>0.461</t>
+  </si>
+  <si>
+    <t>0.09+/-0.007</t>
+  </si>
+  <si>
+    <t>0.767+/-0.007</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.727+/-0.024</t>
+  </si>
+  <si>
+    <t>0.61+/-0.02</t>
+  </si>
+  <si>
+    <t>0.627+/-0.038</t>
+  </si>
+  <si>
+    <t>0.531+/-0.053</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.118+/-0.004</t>
+  </si>
+  <si>
+    <t>0.713+/-0.003</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.725+/-0.008</t>
+  </si>
+  <si>
+    <t>0.678+/-0.018</t>
+  </si>
+  <si>
+    <t>0.399+/-0.017</t>
+  </si>
+  <si>
+    <t>0.365+/-0.019</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>30.725+/-2.996</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.991+/-0.0</t>
+  </si>
+  <si>
+    <t>0.818+/-0.0</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.598+/-0.032</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.957+/-0.002</t>
+  </si>
+  <si>
+    <t>0.262+/-0.024</t>
+  </si>
+  <si>
+    <t>0.307</t>
   </si>
   <si>
     <t>0.002+/-0.0</t>
   </si>
   <si>
-    <t>0.647+/-0.002</t>
-  </si>
-  <si>
-    <t>0.645+/-0.0</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.578+/-0.004</t>
-  </si>
-  <si>
-    <t>0.574+/-0.041</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.276+/-0.011</t>
-  </si>
-  <si>
-    <t>0.272+/-0.019</t>
-  </si>
-  <si>
-    <t>0.274</t>
-  </si>
-  <si>
-    <t>0.12+/-0.033</t>
-  </si>
-  <si>
-    <t>0.597+/-0.002</t>
-  </si>
-  <si>
-    <t>0.597+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.48+/-0.002</t>
-  </si>
-  <si>
-    <t>0.48+/-0.014</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.697+/-0.03</t>
-  </si>
-  <si>
-    <t>0.694+/-0.043</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.615+/-0.003</t>
-  </si>
-  <si>
-    <t>0.612+/-0.0</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.494+/-0.004</t>
-  </si>
-  <si>
-    <t>0.492+/-0.019</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>0.494+/-0.01</t>
-  </si>
-  <si>
-    <t>0.491+/-0.023</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.01+/-0.002</t>
-  </si>
-  <si>
-    <t>0.784+/-0.004</t>
-  </si>
-  <si>
-    <t>0.73+/-0.0</t>
-  </si>
-  <si>
-    <t>0.748</t>
-  </si>
-  <si>
-    <t>0.784+/-0.021</t>
-  </si>
-  <si>
-    <t>0.691+/-0.024</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>0.6+/-0.027</t>
-  </si>
-  <si>
-    <t>0.533+/-0.05</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>6.087+/-1.108</t>
-  </si>
-  <si>
-    <t>0.788+/-0.008</t>
-  </si>
-  <si>
-    <t>0.705+/-0.0</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.74+/-0.026</t>
-  </si>
-  <si>
-    <t>0.623+/-0.026</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.687+/-0.027</t>
-  </si>
-  <si>
-    <t>0.577+/-0.029</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.117+/-0.013</t>
-  </si>
-  <si>
-    <t>0.767+/-0.008</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.734+/-0.051</t>
-  </si>
-  <si>
-    <t>0.622+/-0.045</t>
-  </si>
-  <si>
-    <t>0.624+/-0.071</t>
-  </si>
-  <si>
-    <t>0.541+/-0.081</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.161+/-0.019</t>
-  </si>
-  <si>
-    <t>0.724+/-0.003</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.707</t>
-  </si>
-  <si>
-    <t>0.768+/-0.005</t>
-  </si>
-  <si>
-    <t>0.714+/-0.026</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.393+/-0.011</t>
-  </si>
-  <si>
-    <t>0.358+/-0.024</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>46.787+/-3.759</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.991+/-0.0</t>
-  </si>
-  <si>
-    <t>0.819+/-0.0</t>
+    <t>0.803+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.596+/-0.024</t>
+  </si>
+  <si>
+    <t>0.615+/-0.182</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.026+/-0.002</t>
+  </si>
+  <si>
+    <t>0.025+/-0.01</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.054+/-0.004</t>
+  </si>
+  <si>
+    <t>0.786+/-0.005</t>
+  </si>
+  <si>
+    <t>0.784+/-0.0</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.429+/-0.026</t>
+  </si>
+  <si>
+    <t>0.423+/-0.059</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.237+/-0.017</t>
+  </si>
+  <si>
+    <t>0.234+/-0.028</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.783+/-0.002</t>
+  </si>
+  <si>
+    <t>0.782+/-0.0</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.293+/-0.008</t>
+  </si>
+  <si>
+    <t>0.29+/-0.065</t>
+  </si>
+  <si>
+    <t>0.298</t>
+  </si>
+  <si>
+    <t>0.067+/-0.009</t>
+  </si>
+  <si>
+    <t>0.065+/-0.01</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.856+/-0.005</t>
+  </si>
+  <si>
+    <t>0.828+/-0.0</t>
+  </si>
+  <si>
+    <t>0.836</t>
+  </si>
+  <si>
+    <t>0.781+/-0.024</t>
+  </si>
+  <si>
+    <t>0.638+/-0.057</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.384+/-0.044</t>
+  </si>
+  <si>
+    <t>0.314+/-0.049</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>5.171+/-1.1</t>
+  </si>
+  <si>
+    <t>0.887+/-0.003</t>
+  </si>
+  <si>
+    <t>0.815+/-0.0</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>0.86+/-0.033</t>
+  </si>
+  <si>
+    <t>0.555+/-0.028</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.516+/-0.019</t>
+  </si>
+  <si>
+    <t>0.338+/-0.014</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.1+/-0.01</t>
+  </si>
+  <si>
+    <t>0.876+/-0.003</t>
+  </si>
+  <si>
+    <t>0.814+/-0.0</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>0.833+/-0.035</t>
+  </si>
+  <si>
+    <t>0.553+/-0.043</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.473+/-0.037</t>
+  </si>
+  <si>
+    <t>0.32+/-0.034</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.129+/-0.006</t>
+  </si>
+  <si>
+    <t>0.831+/-0.001</t>
+  </si>
+  <si>
+    <t>0.822+/-0.0</t>
   </si>
   <si>
     <t>0.824</t>
   </si>
   <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601+/-0.03</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.957+/-0.002</t>
-  </si>
-  <si>
-    <t>0.267+/-0.021</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.803+/-0.0</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.603+/-0.023</t>
-  </si>
-  <si>
-    <t>0.61+/-0.196</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.027+/-0.003</t>
-  </si>
-  <si>
-    <t>0.026+/-0.01</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>0.053+/-0.004</t>
-  </si>
-  <si>
-    <t>0.794+/-0.005</t>
-  </si>
-  <si>
-    <t>0.794+/-0.0</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.466+/-0.023</t>
-  </si>
-  <si>
-    <t>0.466+/-0.062</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.258+/-0.018</t>
-  </si>
-  <si>
-    <t>0.259+/-0.035</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.792+/-0.001</t>
-  </si>
-  <si>
-    <t>0.793+/-0.0</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.309+/-0.019</t>
-  </si>
-  <si>
-    <t>0.312+/-0.086</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>0.04+/-0.008</t>
-  </si>
-  <si>
-    <t>0.039+/-0.015</t>
-  </si>
-  <si>
-    <t>0.038</t>
-  </si>
-  <si>
-    <t>0.009+/-0.003</t>
-  </si>
-  <si>
-    <t>0.852+/-0.003</t>
-  </si>
-  <si>
-    <t>0.826+/-0.0</t>
-  </si>
-  <si>
-    <t>0.842</t>
-  </si>
-  <si>
-    <t>0.708+/-0.036</t>
-  </si>
-  <si>
-    <t>0.605+/-0.049</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.44+/-0.038</t>
-  </si>
-  <si>
-    <t>0.37+/-0.052</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>5.691+/-1.723</t>
-  </si>
-  <si>
-    <t>0.886+/-0.003</t>
-  </si>
-  <si>
-    <t>0.816+/-0.0</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>0.864+/-0.027</t>
-  </si>
-  <si>
-    <t>0.56+/-0.036</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.51+/-0.016</t>
-  </si>
-  <si>
-    <t>0.339+/-0.021</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.118+/-0.002</t>
-  </si>
-  <si>
-    <t>0.877+/-0.003</t>
-  </si>
-  <si>
-    <t>0.839+/-0.035</t>
-  </si>
-  <si>
-    <t>0.562+/-0.033</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.472+/-0.038</t>
-  </si>
-  <si>
-    <t>0.319+/-0.037</t>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t>0.164+/-0.003</t>
-  </si>
-  <si>
-    <t>0.831+/-0.001</t>
-  </si>
-  <si>
-    <t>0.821+/-0.0</t>
-  </si>
-  <si>
-    <t>0.771+/-0.014</t>
-  </si>
-  <si>
-    <t>0.694+/-0.064</t>
-  </si>
-  <si>
-    <t>0.213+/-0.01</t>
-  </si>
-  <si>
-    <t>0.18+/-0.028</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>24.359+/-2.078</t>
+    <t>0.789+/-0.019</t>
+  </si>
+  <si>
+    <t>0.714+/-0.056</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.204+/-0.009</t>
+  </si>
+  <si>
+    <t>0.173+/-0.028</t>
+  </si>
+  <si>
+    <t>0.195</t>
+  </si>
+  <si>
+    <t>21.136+/-1.842</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1011,7 @@
         <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1040,7 +1043,7 @@
         <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1072,7 +1075,7 @@
         <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1104,7 +1107,7 @@
         <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1133,10 +1136,10 @@
         <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1168,7 +1171,7 @@
         <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1200,7 +1203,7 @@
         <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1232,7 +1235,7 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1264,7 +1267,7 @@
         <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1314,31 +1317,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1346,31 +1349,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1378,31 +1381,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1413,25 +1416,25 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
         <v>174</v>
@@ -1445,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
         <v>175</v>
@@ -1477,28 +1480,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1509,28 +1512,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1541,28 +1544,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1573,28 +1576,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1602,31 +1605,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
